--- a/Pro de Horas/dataDocentes_15032025_Telemática.xlsx
+++ b/Pro de Horas/dataDocentes_15032025_Telemática.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6958F1-964D-4031-A2C4-2D3C14886E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B9CFB5-3BF3-4B39-9081-F6F84D900B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15300" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataGrupos2025_2" sheetId="3" r:id="rId1"/>
@@ -760,18 +760,18 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="C22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -785,7 +785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -881,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D28">
         <f>SUM(D2:D27)</f>
         <v>682</v>
@@ -1447,16 +1447,17 @@
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J29">
         <v>124</v>
       </c>
       <c r="K29">
-        <v>554</v>
+        <f>D28-J29</f>
+        <v>558</v>
       </c>
       <c r="M29">
         <f>J29+K29</f>
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -1473,17 +1474,17 @@
       <selection activeCell="F2" sqref="F2:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>25</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>28</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>37</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14">
         <f>SUM(F2:F13)</f>
         <v>124</v>
@@ -1770,22 +1771,22 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1808,7 +1809,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1910,7 +1911,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2116,7 +2117,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>16</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>17</v>
@@ -2145,12 +2146,12 @@
       <c r="J11">
         <v>24</v>
       </c>
-      <c r="K11" t="e" vm="1">
+      <c r="K11" t="str">
         <f>IF(F11=J11,"ok",_xleta.NOT)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>ok</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2494,7 +2495,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2631,7 +2632,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2836,7 +2837,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2905,14 +2906,14 @@
         <v>ok</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E34">
         <f>SUM(E2:E33)</f>
         <v>341</v>
       </c>
       <c r="F34">
         <f>SUM(F2:F33)</f>
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J34">
         <f>SUM(J2:J33)</f>

--- a/Pro de Horas/dataDocentes_15032025_Telemática.xlsx
+++ b/Pro de Horas/dataDocentes_15032025_Telemática.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B9CFB5-3BF3-4B39-9081-F6F84D900B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6792D6ED-3C15-4DA9-A432-29B563811B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15300" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="15300" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataGrupos2025_2" sheetId="3" r:id="rId1"/>
@@ -32,30 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
   <si>
     <t>OLMOS OLALDE VICTOR HUGO</t>
   </si>
@@ -410,64 +388,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>13</v>
-    <v>7</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-    <k n="subType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,7 +681,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="C22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,11 +1369,11 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J29">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K29">
         <f>D28-J29</f>
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M29">
         <f>J29+K29</f>
@@ -1470,8 +1390,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,7 +1501,7 @@
         <v>76</v>
       </c>
       <c r="F5" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>12</v>
@@ -1750,7 +1670,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14">
         <f>SUM(F2:F13)</f>
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G14" s="1">
         <f>SUM(G2:G13)</f>
@@ -1768,10 +1688,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,11 +1702,9 @@
     <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1809,7 +1727,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1828,22 +1746,8 @@
       <c r="F2">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="str">
-        <f>IF(B2=H2,"ok",_xleta.NOT)</f>
-        <v>ok</v>
-      </c>
-      <c r="J2">
-        <v>13</v>
-      </c>
-      <c r="K2" t="str">
-        <f>IF(F2=J2,"ok",_xleta.NOT)</f>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1860,24 +1764,10 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I33" si="0">IF(B3=H3,"ok",_xleta.NOT)</f>
-        <v>ok</v>
-      </c>
-      <c r="J3">
-        <v>28</v>
-      </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K33" si="1">IF(F3=J3,"ok",_xleta.NOT)</f>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1896,22 +1786,8 @@
       <c r="F4">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J4">
-        <v>24</v>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1930,22 +1806,8 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1964,22 +1826,8 @@
       <c r="F6">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J6">
-        <v>16</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1999,22 +1847,8 @@
         <v>26</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J7">
-        <v>26</v>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2033,22 +1867,8 @@
       <c r="F8">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J8">
-        <v>22</v>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2067,22 +1887,8 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2102,22 +1908,8 @@
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2134,24 +1926,10 @@
         <v>16</v>
       </c>
       <c r="F11">
-        <v>24</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J11">
-        <v>24</v>
-      </c>
-      <c r="K11" t="str">
-        <f>IF(F11=J11,"ok",_xleta.NOT)</f>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2170,22 +1948,8 @@
       <c r="F12">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2204,22 +1968,8 @@
       <c r="F13">
         <v>25</v>
       </c>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J13">
-        <v>25</v>
-      </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2238,22 +1988,8 @@
       <c r="F14">
         <v>18</v>
       </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J14">
-        <v>18</v>
-      </c>
-      <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2276,22 +2012,8 @@
         <f>39-F15</f>
         <v>31</v>
       </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J15">
-        <v>8</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2310,22 +2032,8 @@
       <c r="F16">
         <v>24</v>
       </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J16">
-        <v>24</v>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2344,22 +2052,8 @@
       <c r="F17">
         <v>6</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J17">
-        <v>6</v>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2378,22 +2072,8 @@
       <c r="F18">
         <v>24</v>
       </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J18">
-        <v>24</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2412,22 +2092,8 @@
       <c r="F19">
         <v>23</v>
       </c>
-      <c r="H19" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J19">
-        <v>23</v>
-      </c>
-      <c r="K19" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2446,22 +2112,8 @@
       <c r="F20">
         <v>6</v>
       </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J20">
-        <v>6</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2480,22 +2132,8 @@
       <c r="F21">
         <v>25</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J21">
-        <v>21</v>
-      </c>
-      <c r="K21" t="e" vm="1">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2515,22 +2153,8 @@
         <v>7</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2549,22 +2173,8 @@
       <c r="F23">
         <v>18</v>
       </c>
-      <c r="H23" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J23">
-        <v>18</v>
-      </c>
-      <c r="K23" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2583,22 +2193,8 @@
       <c r="F24">
         <v>39</v>
       </c>
-      <c r="H24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J24">
-        <v>39</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2617,22 +2213,8 @@
       <c r="F25">
         <v>12</v>
       </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J25">
-        <v>12</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2651,22 +2233,8 @@
       <c r="F26">
         <v>38</v>
       </c>
-      <c r="H26" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J26">
-        <v>38</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2685,22 +2253,8 @@
       <c r="F27">
         <v>9</v>
       </c>
-      <c r="H27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J27">
-        <v>9</v>
-      </c>
-      <c r="K27" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2719,22 +2273,8 @@
       <c r="F28">
         <v>17</v>
       </c>
-      <c r="H28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J28">
-        <v>17</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2753,22 +2293,8 @@
       <c r="F29">
         <v>8</v>
       </c>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J29">
-        <v>8</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2787,22 +2313,8 @@
       <c r="F30">
         <v>12</v>
       </c>
-      <c r="H30" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J30">
-        <v>12</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2822,22 +2334,8 @@
         <v>3</v>
       </c>
       <c r="G31" s="4"/>
-      <c r="H31" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J31">
-        <v>3</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2854,25 +2352,11 @@
         <v>20</v>
       </c>
       <c r="F32">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G32" s="4"/>
-      <c r="H32" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J32">
-        <v>11</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2891,33 +2375,15 @@
       <c r="F33">
         <v>24</v>
       </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="0"/>
-        <v>ok</v>
-      </c>
-      <c r="J33">
-        <v>24</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E34">
         <f>SUM(E2:E33)</f>
         <v>341</v>
       </c>
       <c r="F34">
         <f>SUM(F2:F33)</f>
-        <v>558</v>
-      </c>
-      <c r="J34">
-        <f>SUM(J2:J33)</f>
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/Pro de Horas/dataDocentes_15032025_Telemática.xlsx
+++ b/Pro de Horas/dataDocentes_15032025_Telemática.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6792D6ED-3C15-4DA9-A432-29B563811B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBCFA3B-A6C8-45B7-BBD8-7263ED187E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="15300" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataGrupos2025_2" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="90">
   <si>
     <t>OLMOS OLALDE VICTOR HUGO</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>hrsHorarios</t>
+  </si>
+  <si>
+    <t>VILLA CUETO MA. ISABEL</t>
   </si>
 </sst>
 </file>
@@ -680,18 +683,18 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="C22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -705,7 +708,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -729,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -753,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -777,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -801,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -825,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -849,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -873,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -897,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -921,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -945,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -969,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -993,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1017,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1089,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1161,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1257,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D28">
         <f>SUM(D2:D27)</f>
         <v>682</v>
@@ -1367,7 +1370,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J29">
         <v>120</v>
       </c>
@@ -1390,21 +1393,21 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -1507,7 +1510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
@@ -1547,7 +1550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>23</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>25</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>28</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>37</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F14">
         <f>SUM(F2:F13)</f>
         <v>120</v>
@@ -1688,23 +1691,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1727,7 +1732,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1743,11 +1748,21 @@
       <c r="E2">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(F2=I2,"OK","NEL")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1763,11 +1778,21 @@
       <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J34" si="0">IF(F3=I3,"OK","NEL")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1786,8 +1811,18 @@
       <c r="F4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1806,8 +1841,18 @@
       <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1826,8 +1871,18 @@
       <c r="F6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1847,8 +1902,18 @@
         <v>26</v>
       </c>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>26</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1867,8 +1932,18 @@
       <c r="F8">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>22</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1887,8 +1962,12 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1908,8 +1987,18 @@
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1928,8 +2017,18 @@
       <c r="F11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1948,8 +2047,18 @@
       <c r="F12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1968,8 +2077,18 @@
       <c r="F13">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1988,8 +2107,18 @@
       <c r="F14">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2012,8 +2141,18 @@
         <f>39-F15</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2032,8 +2171,18 @@
       <c r="F16">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>24</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2052,8 +2201,18 @@
       <c r="F17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2072,8 +2231,18 @@
       <c r="F18">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>24</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2092,8 +2261,18 @@
       <c r="F19">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>23</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2112,8 +2291,18 @@
       <c r="F20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2130,10 +2319,20 @@
         <v>6</v>
       </c>
       <c r="F21">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21">
+        <v>21</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2153,8 +2352,18 @@
         <v>7</v>
       </c>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2173,8 +2382,18 @@
       <c r="F23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>18</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2193,8 +2412,18 @@
       <c r="F24">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24">
+        <v>39</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2213,8 +2442,18 @@
       <c r="F25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2233,8 +2472,18 @@
       <c r="F26">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26">
+        <v>38</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2253,8 +2502,18 @@
       <c r="F27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2273,8 +2532,18 @@
       <c r="F28">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2293,8 +2562,18 @@
       <c r="F29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2313,8 +2592,18 @@
       <c r="F30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>12</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2334,8 +2623,18 @@
         <v>3</v>
       </c>
       <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2355,8 +2654,18 @@
         <v>19</v>
       </c>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32">
+        <v>19</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2375,15 +2684,25 @@
       <c r="F33">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33">
+        <v>24</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E34">
         <f>SUM(E2:E33)</f>
         <v>341</v>
       </c>
       <c r="F34">
         <f>SUM(F2:F33)</f>
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/Pro de Horas/dataDocentes_15032025_Telemática.xlsx
+++ b/Pro de Horas/dataDocentes_15032025_Telemática.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBCFA3B-A6C8-45B7-BBD8-7263ED187E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C781E4E-0F21-42A1-8C31-C8804E30E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -684,7 +684,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1693,8 +1693,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1781,6 +1781,9 @@
       <c r="F3" s="3">
         <v>22</v>
       </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>22</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J34" si="0">IF(F3=I3,"OK","NEL")</f>
+        <f t="shared" ref="J3:J33" si="0">IF(F3=I3,"OK","NEL")</f>
         <v>OK</v>
       </c>
     </row>
@@ -2171,6 +2174,9 @@
       <c r="F16">
         <v>24</v>
       </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
       <c r="H16" t="s">
         <v>35</v>
       </c>
@@ -2321,6 +2327,9 @@
       <c r="F21">
         <v>21</v>
       </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
       <c r="H21" t="s">
         <v>32</v>
       </c>
@@ -2351,7 +2360,9 @@
       <c r="F22">
         <v>7</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
       <c r="H22" t="s">
         <v>2</v>
       </c>
@@ -2653,7 +2664,9 @@
       <c r="F32">
         <v>19</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
       <c r="H32" t="s">
         <v>89</v>
       </c>
